--- a/14 Geopandas Teil 2/dataprojects/GoogleMaps/ZRH-Destinations-Europe.xlsx
+++ b/14 Geopandas Teil 2/dataprojects/GoogleMaps/ZRH-Destinations-Europe.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/No-Dropbox/Temp/14 Geopandas Teil 2/dataprojects/GoogleMaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67029120-D219-7647-B88E-B7ECF712CFC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Blatt1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -346,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,40 +478,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -830,14 +844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
@@ -1475,14 +1489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
